--- a/TestData/CheckoutData1.xlsx
+++ b/TestData/CheckoutData1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sysforetech-my.sharepoint.com/personal/mahalakshmi_vs_sysfore_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javaprograming\TestAutomation1\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4277FA8F-BF70-4C71-8922-862F2D392197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AC2ED-A6EA-4230-B9AB-7B83EA1B4423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B042DFCE-3C27-476E-8C74-25827FEA53E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>LastName</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>23WEE@#</t>
+  </si>
+  <si>
+    <t>WW234</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,6 +491,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -516,6 +525,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -579,6 +591,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{1CC9EA60-040A-494E-B69C-6D4025622E76}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{16643DC0-DDC6-444F-9328-6C1A4B5FA351}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
